--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.106508875739645</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.1333333333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6094674556213018</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8579881656804733</v>
+        <v>0.6153846153846153</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3205128205128205</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3094304388422035</v>
+        <v>0.1779271708683473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8331360946745562</v>
+        <v>0.5149901380670612</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
+++ b/mbs-perturbation/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.106508875739645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6094674556213018</v>
+        <v>0.946969696969697</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.818181818181818</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6856060606060606</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3205128205128205</v>
+        <v>0.7348484848484849</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.375</v>
+        <v>0.3984848484848485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.253030303030303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1779271708683473</v>
+        <v>0.2884848484848485</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5149901380670612</v>
+        <v>0.6371212121212121</v>
       </c>
     </row>
   </sheetData>
